--- a/medicine/Pharmacie/Micronutrition/Micronutrition.xlsx
+++ b/medicine/Pharmacie/Micronutrition/Micronutrition.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La micronutrition, dans une acception générique du terme, est le domaine de la nutrition qui implique les micronutriments. Dans une acception plus spécifique, elle désigne la micronutrition constituée en pratique de médecine complémentaire. Celle-ci propose la modification du régime alimentaire ou la prescription de suppléments alimentaires en vue d'une meilleure santé ou de meilleures performances. 
-L’Afssa estime que : • La « micronutrition » n’est pas actuellement un concept défini au plan scientifique et ne bénéficie pas d’une reconnaissance officielle des institutions compétentes[1] 
+L’Afssa estime que : • La « micronutrition » n’est pas actuellement un concept défini au plan scientifique et ne bénéficie pas d’une reconnaissance officielle des institutions compétentes 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Bienfaits des aliments</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les aliments ingérés par les humains apportent :
 des macronutriments (protéines, glucides, lipides) qui fournissent les calories et donc l’énergie ;
@@ -547,7 +561,9 @@
           <t>Description de la micronutrition [2]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À la fin du siècle dernier, les scientifiques ont découvert qu'avant l'apparition de certaines pathologies chez l'homme il existe des carences nutritionnelles en vitamines, probiotiques, acides gras, métalloides, qu'ils ont appelé micronutriments: la micronutrition était née.
 Pour fonctionner correctement l'organisme dans sa totalité et pour chaque organe a besoin quotidiennement de l'apport de ces nutriments contenus dans l'alimentation; qu'ils soient en déficit ou en excès, le mécanisme s'enraye et des symptômes peuvent apparaitre.
@@ -583,9 +599,11 @@
           <t>Micronutrition et santé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les laboratoires faisant la promotion de la micronutrition prétendent que celle-ci s'applique dans plusieurs domaines médicaux[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les laboratoires faisant la promotion de la micronutrition prétendent que celle-ci s'applique dans plusieurs domaines médicaux :
 en cardiologie dans la prévention des maladies cardiovasculaires
 en rhumatologie dans la prévention et le traitement de pathologies dégénératives
 dans les maladies du tube digestif (syndrome du colon irritable, malabsorption, pathologie inflammatoire, leaky-gut syndrome (intestin perméable)
@@ -593,7 +611,7 @@
 dans la lutte  contre l’attaque des radicaux libres
 dans la prise en charge des états de fatigue chronique, troubles du sommeil, de l’humeur, douleurs diffuses, baisse de l’immunité...
 Paragraphe sans fondement
-De nombreuses études[réf. nécessaire] ont en effet montré qu’une alimentation riche en micronutriments contribue à diminuer les risques de cancers, maladies cardio-vasculaires (infarctus, accident vasculaire cérébral), maladies inflammatoires, métaboliques (obésité[4][source insuffisante], diabète, dyslipidémie), ostéoporose, et dégénératives, maladies d'Alzheimer, Parkinson, et autres…).
+De nombreuses études[réf. nécessaire] ont en effet montré qu’une alimentation riche en micronutriments contribue à diminuer les risques de cancers, maladies cardio-vasculaires (infarctus, accident vasculaire cérébral), maladies inflammatoires, métaboliques (obésité[source insuffisante], diabète, dyslipidémie), ostéoporose, et dégénératives, maladies d'Alzheimer, Parkinson, et autres…).
 </t>
         </is>
       </c>
@@ -622,9 +640,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La formation des pharmaciens est très variable dans le domaine de la nutrition ; en France, une seule faculté, Dijon, possède un service dédié. Un rapport publié par l'Académie nationale de médecine suggère que l’enseignement soit coordonné par des enseignants spécialistes de la question. En France, les officinaux restent trop dépendants des sociétés commerciales pour leur formation continue, alors nécessairement biaisée[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formation des pharmaciens est très variable dans le domaine de la nutrition ; en France, une seule faculté, Dijon, possède un service dédié. Un rapport publié par l'Académie nationale de médecine suggère que l’enseignement soit coordonné par des enseignants spécialistes de la question. En France, les officinaux restent trop dépendants des sociétés commerciales pour leur formation continue, alors nécessairement biaisée :
 </t>
         </is>
       </c>
